--- a/biology/Zoologie/Colias_chippewa/Colias_chippewa.xlsx
+++ b/biology/Zoologie/Colias_chippewa/Colias_chippewa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias chippewa est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Colias chippewa a été nommé par Edwards en 1872[1].
-Noms vernaculaires
-Colias chippewa se nomme Heath Sulphur en anglais.
-Sous-espèces
-Colias chippewa chippewa; présent dans toute son aire canadienne.
-Colias chippewa baffinensis Ebner &amp; Ferris, 1978; présent dans l'ile de Baffin des Territoires du Nord-Ouest.
-Colias chippewa gomojunovae Korshunov, 1996; présent dans la Péninsule tchouktche et au Magadan[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias chippewa a été nommé par Edwards en 1872.
+</t>
         </is>
       </c>
     </row>
@@ -544,15 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias chippewa est un papillon de taille moyenne (son envergure varie de 32 à 45 mm). Le mâle est d'une couleur jaune brillant à bordure noire, sans point discoïdal aux antérieures et un revers suffusé de foncé à tache blanche au centre des postérieures
-Les femelles sont blanches avec une étroite bordure foncée[2].
-Chenille
-La chenille est verte, avec une bande jaune sur chaque flanc[2].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias chippewa se nomme Heath Sulphur en anglais.
 </t>
         </is>
       </c>
@@ -578,16 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Colias chippewa vole de mi-juin à début août, en une seule génération[2].
-Plantes hôtes
-La plante hôte de sa chenille est l'airelle, airelle des marécages Vaccinium uliginosum et airelle gazonnante Vaccinium caespitosum[1],[2].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Colias chippewa chippewa; présent dans toute son aire canadienne.
+Colias chippewa baffinensis Ebner &amp; Ferris, 1978; présent dans l'ile de Baffin des Territoires du Nord-Ouest.
+Colias chippewa gomojunovae Korshunov, 1996; présent dans la Péninsule tchouktche et au Magadan.</t>
         </is>
       </c>
     </row>
@@ -612,16 +628,233 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias chippewa est un papillon de taille moyenne (son envergure varie de 32 à 45 mm). Le mâle est d'une couleur jaune brillant à bordure noire, sans point discoïdal aux antérieures et un revers suffusé de foncé à tache blanche au centre des postérieures
+Les femelles sont blanches avec une étroite bordure foncée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte, avec une bande jaune sur chaque flanc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias chippewa vole de mi-juin à début août, en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est l'airelle, airelle des marécages Vaccinium uliginosum et airelle gazonnante Vaccinium caespitosum,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias chippewa est présent dans l'extrême nord-est de l'Asie au Magadan et dans la Péninsule tchouktche et dans le nord de l'Amérique du Nord, en Alaska et au Canada dans la Saskatchewan, le Yukon, l'Ontario, les Territoires du Nord-Ouest, le Manitoba, l'Alberta et la Colombie-Britannique[1].
-Biotope
-Colias chippewa réside dans la toundra.
-Protection
-Pas de statut de protection particulier.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias chippewa est présent dans l'extrême nord-est de l'Asie au Magadan et dans la Péninsule tchouktche et dans le nord de l'Amérique du Nord, en Alaska et au Canada dans la Saskatchewan, le Yukon, l'Ontario, les Territoires du Nord-Ouest, le Manitoba, l'Alberta et la Colombie-Britannique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias chippewa réside dans la toundra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_chippewa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
